--- a/docs/Technikkriterien_v1(Beta).xlsx
+++ b/docs/Technikkriterien_v1(Beta).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ygreck\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D646426-3C0A-47E7-810C-5FCD4CC93719}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96809426-0A79-41A7-81F7-DFF8D9A91415}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{14C70366-D1F9-4B4E-9DA3-360419834ED4}"/>
+    <workbookView xWindow="32175" yWindow="10095" windowWidth="38700" windowHeight="15435" xr2:uid="{14C70366-D1F9-4B4E-9DA3-360419834ED4}"/>
   </bookViews>
   <sheets>
     <sheet name="Kriterien-Tabelle" sheetId="3" r:id="rId1"/>
@@ -3022,8 +3022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A664478D-3578-4C2F-A3E0-1449CC1F3EC9}">
   <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3780,7 +3780,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
